--- a/src/test/resources/import/generic/error-header-missing.xlsx
+++ b/src/test/resources/import/generic/error-header-missing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91969DD-7F92-45C5-930F-A51427BE97D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{86E1BD8F-9B6F-4E7C-8550-1A869496F3B3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -587,125 +587,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430BB58-B4E4-4B0E-8687-53C62F0242DD}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/test/resources/import/generic/error-header-missing.xlsx
+++ b/src/test/resources/import/generic/error-header-missing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D385D5-72EF-4913-A79D-5501EC0A8A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91969DD-7F92-45C5-930F-A51427BE97D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>gagneray@beable.com</t>
   </si>
   <si>
-    <t>PT_BR</t>
+    <t>IT_IT</t>
   </si>
   <si>
     <t>License</t>
@@ -107,19 +107,13 @@
     <t>VISIO</t>
   </si>
   <si>
-    <t>ES_ES</t>
+    <t>DE_DE</t>
   </si>
   <si>
     <t>ASSESSMENT</t>
   </si>
   <si>
-    <t>IT_IT</t>
-  </si>
-  <si>
     <t>NEWS</t>
-  </si>
-  <si>
-    <t>DE_DE</t>
   </si>
 </sst>
 </file>
@@ -485,7 +479,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,104 +587,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430BB58-B4E4-4B0E-8687-53C62F0242DD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
